--- a/氣象性能評估工具V2/data/obs/2016-06-21_T2_obs.xlsx
+++ b/氣象性能評估工具V2/data/obs/2016-06-21_T2_obs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="217">
   <si>
     <t>times</t>
   </si>
@@ -91,12 +91,12 @@
     <t>恆春</t>
   </si>
   <si>
+    <t>22.6</t>
+  </si>
+  <si>
     <t>2016-06-21-00</t>
   </si>
   <si>
-    <t>22.6</t>
-  </si>
-  <si>
     <t>26.1</t>
   </si>
   <si>
@@ -151,12 +151,12 @@
     <t>27.3</t>
   </si>
   <si>
+    <t>22.7</t>
+  </si>
+  <si>
     <t>2016-06-21-01</t>
   </si>
   <si>
-    <t>22.7</t>
-  </si>
-  <si>
     <t>25.9</t>
   </si>
   <si>
@@ -199,12 +199,12 @@
     <t>28.2</t>
   </si>
   <si>
+    <t>22.4</t>
+  </si>
+  <si>
     <t>2016-06-21-02</t>
   </si>
   <si>
-    <t>22.4</t>
-  </si>
-  <si>
     <t>25.6</t>
   </si>
   <si>
@@ -235,12 +235,12 @@
     <t>26.7</t>
   </si>
   <si>
+    <t>22.1</t>
+  </si>
+  <si>
     <t>2016-06-21-03</t>
   </si>
   <si>
-    <t>22.1</t>
-  </si>
-  <si>
     <t>23.6</t>
   </si>
   <si>
@@ -271,12 +271,12 @@
     <t>27.0</t>
   </si>
   <si>
+    <t>22.2</t>
+  </si>
+  <si>
     <t>2016-06-21-05</t>
   </si>
   <si>
-    <t>22.2</t>
-  </si>
-  <si>
     <t>25.7</t>
   </si>
   <si>
@@ -292,12 +292,12 @@
     <t>7.2</t>
   </si>
   <si>
+    <t>22.9</t>
+  </si>
+  <si>
     <t>2016-06-21-06</t>
   </si>
   <si>
-    <t>22.9</t>
-  </si>
-  <si>
     <t>24.0</t>
   </si>
   <si>
@@ -328,12 +328,12 @@
     <t>29.8</t>
   </si>
   <si>
+    <t>24.5</t>
+  </si>
+  <si>
     <t>2016-06-21-07</t>
   </si>
   <si>
-    <t>24.5</t>
-  </si>
-  <si>
     <t>24.7</t>
   </si>
   <si>
@@ -517,12 +517,12 @@
     <t>32.2</t>
   </si>
   <si>
+    <t>24.2</t>
+  </si>
+  <si>
     <t>2016-06-21-13</t>
   </si>
   <si>
-    <t>24.2</t>
-  </si>
-  <si>
     <t>34.5</t>
   </si>
   <si>
@@ -583,12 +583,12 @@
     <t>6.0</t>
   </si>
   <si>
+    <t>23.8</t>
+  </si>
+  <si>
     <t>2016-06-21-17</t>
   </si>
   <si>
-    <t>23.8</t>
-  </si>
-  <si>
     <t>25.2</t>
   </si>
   <si>
@@ -613,12 +613,12 @@
     <t>13.2</t>
   </si>
   <si>
+    <t>21.7</t>
+  </si>
+  <si>
     <t>2016-06-21-19</t>
   </si>
   <si>
-    <t>21.7</t>
-  </si>
-  <si>
     <t>29.0</t>
   </si>
   <si>
@@ -628,10 +628,10 @@
     <t>7.3</t>
   </si>
   <si>
+    <t>22.3</t>
+  </si>
+  <si>
     <t>2016-06-21-20</t>
-  </si>
-  <si>
-    <t>22.3</t>
   </si>
   <si>
     <t>7.9</t>
@@ -671,6 +671,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd-hh"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -700,8 +703,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1080,11 +1084,11 @@
       </c>
     </row>
     <row r="2" spans="1:25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
         <v>25</v>
-      </c>
-      <c r="B2" t="s">
-        <v>26</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
@@ -1157,11 +1161,11 @@
       </c>
     </row>
     <row r="3" spans="1:25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" t="s">
         <v>45</v>
-      </c>
-      <c r="B3" t="s">
-        <v>46</v>
       </c>
       <c r="C3" t="s">
         <v>47</v>
@@ -1234,11 +1238,11 @@
       </c>
     </row>
     <row r="4" spans="1:25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" t="s">
         <v>61</v>
-      </c>
-      <c r="B4" t="s">
-        <v>62</v>
       </c>
       <c r="C4" t="s">
         <v>47</v>
@@ -1311,11 +1315,11 @@
       </c>
     </row>
     <row r="5" spans="1:25">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" t="s">
         <v>73</v>
-      </c>
-      <c r="B5" t="s">
-        <v>74</v>
       </c>
       <c r="C5" t="s">
         <v>34</v>
@@ -1388,11 +1392,11 @@
       </c>
     </row>
     <row r="6" spans="1:25">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C6" t="s">
         <v>63</v>
@@ -1465,11 +1469,11 @@
       </c>
     </row>
     <row r="7" spans="1:25">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" t="s">
         <v>85</v>
-      </c>
-      <c r="B7" t="s">
-        <v>86</v>
       </c>
       <c r="C7" t="s">
         <v>87</v>
@@ -1542,11 +1546,11 @@
       </c>
     </row>
     <row r="8" spans="1:25">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B8" t="s">
         <v>92</v>
-      </c>
-      <c r="B8" t="s">
-        <v>93</v>
       </c>
       <c r="C8" t="s">
         <v>49</v>
@@ -1619,11 +1623,11 @@
       </c>
     </row>
     <row r="9" spans="1:25">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B9" t="s">
         <v>104</v>
-      </c>
-      <c r="B9" t="s">
-        <v>105</v>
       </c>
       <c r="C9" t="s">
         <v>71</v>
@@ -1696,7 +1700,7 @@
       </c>
     </row>
     <row r="10" spans="1:25">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B10" t="s">
@@ -1773,7 +1777,7 @@
       </c>
     </row>
     <row r="11" spans="1:25">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>133</v>
       </c>
       <c r="B11" t="s">
@@ -1850,7 +1854,7 @@
       </c>
     </row>
     <row r="12" spans="1:25">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>145</v>
       </c>
       <c r="B12" t="s">
@@ -1927,7 +1931,7 @@
       </c>
     </row>
     <row r="13" spans="1:25">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>154</v>
       </c>
       <c r="B13" t="s">
@@ -2004,7 +2008,7 @@
       </c>
     </row>
     <row r="14" spans="1:25">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>161</v>
       </c>
       <c r="B14" t="s">
@@ -2081,11 +2085,11 @@
       </c>
     </row>
     <row r="15" spans="1:25">
-      <c r="A15" t="s">
+      <c r="A15" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B15" t="s">
         <v>167</v>
-      </c>
-      <c r="B15" t="s">
-        <v>168</v>
       </c>
       <c r="C15" t="s">
         <v>127</v>
@@ -2158,7 +2162,7 @@
       </c>
     </row>
     <row r="16" spans="1:25">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
         <v>177</v>
       </c>
       <c r="B16" t="s">
@@ -2235,7 +2239,7 @@
       </c>
     </row>
     <row r="17" spans="1:25">
-      <c r="A17" t="s">
+      <c r="A17" s="1" t="s">
         <v>181</v>
       </c>
       <c r="B17" t="s">
@@ -2312,7 +2316,7 @@
       </c>
     </row>
     <row r="18" spans="1:25">
-      <c r="A18" t="s">
+      <c r="A18" s="1" t="s">
         <v>185</v>
       </c>
       <c r="B18" t="s">
@@ -2389,11 +2393,11 @@
       </c>
     </row>
     <row r="19" spans="1:25">
-      <c r="A19" t="s">
+      <c r="A19" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B19" t="s">
         <v>189</v>
-      </c>
-      <c r="B19" t="s">
-        <v>190</v>
       </c>
       <c r="C19" t="s">
         <v>43</v>
@@ -2466,11 +2470,11 @@
       </c>
     </row>
     <row r="20" spans="1:25">
-      <c r="A20" t="s">
+      <c r="A20" s="1" t="s">
         <v>196</v>
       </c>
       <c r="B20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C20" t="s">
         <v>36</v>
@@ -2543,11 +2547,11 @@
       </c>
     </row>
     <row r="21" spans="1:25">
-      <c r="A21" t="s">
+      <c r="A21" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B21" t="s">
         <v>199</v>
-      </c>
-      <c r="B21" t="s">
-        <v>200</v>
       </c>
       <c r="C21" t="s">
         <v>197</v>
@@ -2620,11 +2624,11 @@
       </c>
     </row>
     <row r="22" spans="1:25">
-      <c r="A22" t="s">
+      <c r="A22" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B22" t="s">
         <v>204</v>
-      </c>
-      <c r="B22" t="s">
-        <v>205</v>
       </c>
       <c r="C22" t="s">
         <v>42</v>
@@ -2697,7 +2701,7 @@
       </c>
     </row>
     <row r="23" spans="1:25">
-      <c r="A23" t="s">
+      <c r="A23" s="1" t="s">
         <v>207</v>
       </c>
       <c r="B23" t="s">
@@ -2774,11 +2778,11 @@
       </c>
     </row>
     <row r="24" spans="1:25">
-      <c r="A24" t="s">
+      <c r="A24" s="1" t="s">
         <v>210</v>
       </c>
       <c r="B24" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C24" t="s">
         <v>29</v>
@@ -2851,7 +2855,7 @@
       </c>
     </row>
     <row r="25" spans="1:25">
-      <c r="A25" t="s">
+      <c r="A25" s="1" t="s">
         <v>214</v>
       </c>
       <c r="B25" t="s">
